--- a/电子签约平台/流程梳理/5.模块详细设计.xlsx
+++ b/电子签约平台/流程梳理/5.模块详细设计.xlsx
@@ -544,13 +544,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>655638</xdr:colOff>
+      <xdr:colOff>636588</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>88923</xdr:rowOff>
     </xdr:to>
@@ -561,7 +561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4770438" y="6800873"/>
+          <a:off x="4751388" y="6800873"/>
           <a:ext cx="3821112" cy="708025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1155,7 +1155,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>508794</xdr:colOff>
+      <xdr:colOff>489744</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104798</xdr:rowOff>
     </xdr:to>
@@ -1170,7 +1170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6654799" y="6416696"/>
-          <a:ext cx="26195" cy="384177"/>
+          <a:ext cx="7145" cy="384177"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2507,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/电子签约平台/流程梳理/5.模块详细设计.xlsx
+++ b/电子签约平台/流程梳理/5.模块详细设计.xlsx
@@ -85,15 +85,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>350838</xdr:colOff>
+      <xdr:colOff>341313</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -102,7 +102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722438" y="171450"/>
+          <a:off x="1712913" y="0"/>
           <a:ext cx="8859837" cy="8067675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -315,7 +315,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>文档生成</a:t>
+            <a:t>文档</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -325,27 +325,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5495925" y="2800350"/>
-          <a:ext cx="938213" cy="276225"/>
+          <a:off x="5495926" y="3514725"/>
+          <a:ext cx="285749" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -376,7 +374,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>460374</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -391,8 +389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4575174" y="3105151"/>
-          <a:ext cx="1771650" cy="684208"/>
+          <a:off x="4575174" y="4171950"/>
+          <a:ext cx="1771650" cy="703259"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -712,25 +710,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>363538</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781675" y="2009775"/>
-          <a:ext cx="0" cy="419100"/>
+          <a:off x="5838825" y="3086100"/>
+          <a:ext cx="11113" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -758,16 +758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>246063</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131765</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -776,8 +776,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7104063" y="1962151"/>
-          <a:ext cx="11112" cy="495299"/>
+          <a:off x="7675565" y="3000377"/>
+          <a:ext cx="1585" cy="1190623"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1084,16 +1084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>658813</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>611188</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1102,7 +1102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6831013" y="2095500"/>
+          <a:off x="7469188" y="3324225"/>
           <a:ext cx="484187" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1199,13 +1199,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>204814</xdr:colOff>
+      <xdr:colOff>252439</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>46037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331810</xdr:colOff>
+      <xdr:colOff>379435</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>93662</xdr:rowOff>
     </xdr:to>
@@ -1216,7 +1216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5005414" y="4027487"/>
+          <a:off x="5053039" y="5113337"/>
           <a:ext cx="812796" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1268,8 +1268,8 @@
       <xdr:rowOff>169859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1282,8 +1282,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5460999" y="3789359"/>
-          <a:ext cx="25401" cy="849316"/>
+          <a:off x="5460999" y="4875209"/>
+          <a:ext cx="15877" cy="849316"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1894,45 +1894,90 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="3629025"/>
+          <a:ext cx="1457325" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="矩形 45"/>
+        <xdr:cNvPr id="80" name="流程图: 联系 79"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562475" y="2419350"/>
-          <a:ext cx="3743325" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
+          <a:off x="2924174" y="1323975"/>
+          <a:ext cx="1581151" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
           <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
+        </a:lnRef>
+        <a:fillRef idx="2">
           <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1941,114 +1986,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Java</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>接口</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6434138" y="2800350"/>
-          <a:ext cx="1052512" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="流程图: 联系 79"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2924174" y="1323975"/>
-          <a:ext cx="1581151" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>异步通知转发</a:t>
           </a:r>
@@ -2107,15 +2044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>26988</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>84138</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112712</xdr:rowOff>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2124,7 +2061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5513388" y="2066925"/>
+          <a:off x="5570538" y="3390900"/>
           <a:ext cx="558800" cy="217487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2507,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/电子签约平台/流程梳理/5.模块详细设计.xlsx
+++ b/电子签约平台/流程梳理/5.模块详细设计.xlsx
@@ -4,21 +4,145 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API平台" sheetId="1" r:id="rId1"/>
-    <sheet name="管理后台" sheetId="2" r:id="rId2"/>
-    <sheet name="超级管理" sheetId="3" r:id="rId3"/>
+    <sheet name="web平台" sheetId="2" r:id="rId2"/>
+    <sheet name="超级后台" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>参考，借阅上上签的相关功能</t>
+    <t>1.界面功能参考，借阅上上签的相关功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册的企业用户可以进行接口对接，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种模式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只是实现自己企业的业务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建应用，可以帮助其他企业实现业务，其他企业授权给该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有权调用其数据</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,14 +323,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>407988</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -215,7 +339,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1779588" y="227012"/>
+          <a:off x="1779588" y="84137"/>
           <a:ext cx="863600" cy="322262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -269,16 +393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -287,7 +411,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381875" y="2457450"/>
+          <a:off x="6734175" y="2286000"/>
           <a:ext cx="1076324" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -325,25 +449,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>9527</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>363538</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5495926" y="3514725"/>
-          <a:ext cx="285749" cy="666750"/>
+          <a:off x="5495927" y="3608387"/>
+          <a:ext cx="354011" cy="573088"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -418,12 +544,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>java-</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>处理队列（异步）</a:t>
+            <a:t>处理消息队列（异步）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -486,7 +608,10 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>CFCA</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -495,15 +620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -512,7 +637,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8172451" y="4791076"/>
+          <a:off x="8020051" y="4752976"/>
           <a:ext cx="38099" cy="952499"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -595,7 +720,10 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>CFCA</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -660,27 +788,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3969</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365919</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="4"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7547769" y="3743323"/>
+          <a:off x="7223919" y="4810123"/>
           <a:ext cx="24606" cy="923927"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -758,16 +884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>131765</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550865</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -776,7 +902,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7675565" y="3000377"/>
+          <a:off x="7408865" y="3038477"/>
           <a:ext cx="1585" cy="1190623"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1085,15 +1211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>611188</xdr:colOff>
+      <xdr:colOff>315913</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1102,7 +1228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7469188" y="3324225"/>
+          <a:off x="7173913" y="3333750"/>
           <a:ext cx="484187" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1312,15 +1438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:rowOff>68262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
+      <xdr:colOff>73025</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1329,7 +1455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972425" y="4116387"/>
+          <a:off x="7743825" y="5135562"/>
           <a:ext cx="558800" cy="227012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1376,15 +1502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
+      <xdr:rowOff>68262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1393,7 +1519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7270750" y="3917950"/>
+          <a:off x="6985000" y="5041900"/>
           <a:ext cx="558800" cy="274637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1599,12 +1725,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>java-</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>完成队列</a:t>
+            <a:t>通知消息队列</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1785,15 +1907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>684213</xdr:colOff>
+      <xdr:colOff>665163</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411162</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>430212</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1802,7 +1924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4799013" y="1600200"/>
+          <a:off x="4779963" y="2247900"/>
           <a:ext cx="1117599" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -1840,15 +1962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>646113</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>674688</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>392112</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>420687</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1857,7 +1979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4760913" y="2257425"/>
+          <a:off x="4789488" y="2705100"/>
           <a:ext cx="1117599" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -1895,9 +2017,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>363538</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -1908,12 +2030,14 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="3629025"/>
-          <a:ext cx="1457325" cy="571500"/>
+          <a:off x="5849938" y="3608387"/>
+          <a:ext cx="1398587" cy="592138"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2129,6 +2253,167 @@
         <a:xfrm>
           <a:off x="5305425" y="847725"/>
           <a:ext cx="8732" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588963</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>293687</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="流程图: 联系 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6761163" y="2638425"/>
+          <a:ext cx="1076324" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26988</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>427038</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="椭圆 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8256588" y="3333750"/>
+          <a:ext cx="1771650" cy="703259"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志消息队列（异步）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136063</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679863" y="2914848"/>
+          <a:ext cx="1025987" cy="457002"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2444,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -2458,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2469,6 +2754,26 @@
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2788,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/电子签约平台/流程梳理/5.模块详细设计.xlsx
+++ b/电子签约平台/流程梳理/5.模块详细设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="API平台" sheetId="1" r:id="rId1"/>
@@ -208,16 +208,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>341313</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259774</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>144320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>245349</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -226,8 +226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1712913" y="0"/>
-          <a:ext cx="8859837" cy="8067675"/>
+          <a:off x="952501" y="144320"/>
+          <a:ext cx="17996484" cy="10087839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -260,14 +260,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>663863</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -278,8 +278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="1085850"/>
-          <a:ext cx="6381751" cy="895349"/>
+          <a:off x="2482273" y="2251364"/>
+          <a:ext cx="14807045" cy="921903"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -321,16 +321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>263958</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>407988</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>84137</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
+      <xdr:colOff>441757</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>44449</xdr:rowOff>
+      <xdr:rowOff>76774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -339,8 +339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1779588" y="84137"/>
-          <a:ext cx="863600" cy="322262"/>
+          <a:off x="956685" y="123100"/>
+          <a:ext cx="870527" cy="328901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -393,16 +393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509478</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>33228</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -411,8 +411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="2286000"/>
-          <a:ext cx="1076324" cy="323850"/>
+          <a:off x="6051296" y="2534227"/>
+          <a:ext cx="1601932" cy="337128"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -439,7 +439,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>文档</a:t>
+            <a:t>文档生成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -448,28 +448,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9527</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>363538</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76090</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76090</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="2"/>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5495927" y="3608387"/>
-          <a:ext cx="354011" cy="573088"/>
+        <a:xfrm>
+          <a:off x="9081545" y="5704610"/>
+          <a:ext cx="0" cy="591415"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -497,73 +498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>460374</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>174624</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169859</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="椭圆 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4575174" y="4171950"/>
-          <a:ext cx="1771650" cy="703259"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>处理消息队列（异步）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>650873</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>98446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82571</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166868</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -572,8 +516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4765673" y="4622821"/>
-          <a:ext cx="3778251" cy="708025"/>
+          <a:off x="11943232" y="4581250"/>
+          <a:ext cx="929950" cy="946135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -619,63 +563,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8020051" y="4752976"/>
-          <a:ext cx="38099" cy="952499"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>636588</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104798</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88923</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>230907</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -684,8 +581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4751388" y="6800873"/>
-          <a:ext cx="3821112" cy="708025"/>
+          <a:off x="13190680" y="4546023"/>
+          <a:ext cx="894772" cy="995795"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -731,73 +628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>39686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>230188</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="椭圆 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6635750" y="3116261"/>
-          <a:ext cx="1824038" cy="627062"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>实时处理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365919</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>58341</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -806,8 +646,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7223919" y="4810123"/>
-          <a:ext cx="24606" cy="923927"/>
+          <a:off x="9063217" y="3189432"/>
+          <a:ext cx="579" cy="648566"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -835,112 +675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>363538</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="84" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838825" y="3086100"/>
-          <a:ext cx="11113" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>550865</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7408865" y="3038477"/>
-          <a:ext cx="1585" cy="1190623"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>562841</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>375227</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123828</xdr:rowOff>
+      <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -949,8 +693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="587377"/>
-          <a:ext cx="6343650" cy="260351"/>
+          <a:off x="1255568" y="607293"/>
+          <a:ext cx="17130568" cy="273048"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -988,14 +732,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477728</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493603</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:to>
@@ -1006,8 +750,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5292725" y="481013"/>
-          <a:ext cx="15875" cy="644525"/>
+          <a:off x="8097728" y="1619972"/>
+          <a:ext cx="15875" cy="671080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1035,14 +779,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223728</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>87320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96728</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7</xdr:rowOff>
     </xdr:to>
@@ -1053,8 +797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="630245"/>
-          <a:ext cx="558800" cy="274637"/>
+          <a:off x="7843728" y="1775843"/>
+          <a:ext cx="565727" cy="287914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,16 +843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>499954</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:rowOff>144318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>534012</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1116,9 +860,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8029575" y="895350"/>
-          <a:ext cx="28575" cy="1371600"/>
+        <a:xfrm flipV="1">
+          <a:off x="10890863" y="894773"/>
+          <a:ext cx="34058" cy="1451842"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1146,16 +890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>230911</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
+      <xdr:rowOff>101023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1164,8 +908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7816850" y="1354138"/>
-          <a:ext cx="558800" cy="228600"/>
+          <a:off x="10535229" y="1356591"/>
+          <a:ext cx="779318" cy="245341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,7 +945,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回</a:t>
+            <a:t>同步返回</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1210,26 +954,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>315913</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>646272</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>649431</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12422636" y="3073977"/>
+          <a:ext cx="3159" cy="1507274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134133</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593472</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>52242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7173913" y="3333750"/>
-          <a:ext cx="484187" cy="209550"/>
+          <a:off x="8446860" y="3370549"/>
+          <a:ext cx="1152067" cy="246352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,7 +1056,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回</a:t>
+            <a:t>异步处理功能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1274,29 +1065,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482599</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>489744</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104798</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55165</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>141573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6654799" y="6416696"/>
-          <a:ext cx="7145" cy="384177"/>
+          <a:off x="9060620" y="6895664"/>
+          <a:ext cx="2562" cy="652177"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1324,26 +1112,617 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>252439</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>379435</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28862</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12873182" y="5043921"/>
+          <a:ext cx="317498" cy="10397"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>620568</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>93662</xdr:rowOff>
+      <xdr:rowOff>57730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>649433</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12396932" y="5498525"/>
+          <a:ext cx="28865" cy="2063748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622191</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376128</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvPr id="34" name="流程图: 联系 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7549464" y="1259032"/>
+          <a:ext cx="1139391" cy="337127"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>多语言</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sdk</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650766</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396765</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="流程图: 联系 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7578039" y="2327564"/>
+          <a:ext cx="1131453" cy="337127"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>握手验证</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660291</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406290</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="流程图: 联系 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7587564" y="2798041"/>
+          <a:ext cx="1131453" cy="337127"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>安全传输</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480903</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>499160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8100903" y="874280"/>
+          <a:ext cx="18257" cy="384752"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66564</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76090</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9072019" y="4457989"/>
+          <a:ext cx="9526" cy="645679"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104089</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>343800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 联系 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11880453" y="2438977"/>
+          <a:ext cx="1625165" cy="432378"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>同步处理功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195152</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>623777</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429697" y="3866573"/>
+          <a:ext cx="5277716" cy="591416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53718</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91818</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="椭圆 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8366445" y="3987511"/>
+          <a:ext cx="1423555" cy="384753"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生产者接口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176103</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>652353</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410648" y="5103668"/>
+          <a:ext cx="5325341" cy="600942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RocketMQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>集群</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>299928</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204678</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 70"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5053039" y="5113337"/>
-          <a:ext cx="812796" cy="228600"/>
+          <a:off x="6534473" y="4054186"/>
+          <a:ext cx="1290205" cy="299028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1378,8 +1757,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>队列处理</a:t>
+            <a:t>消息队列接口</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1388,28 +1771,265 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>660399</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176103</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>652353</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410648" y="6296025"/>
+          <a:ext cx="5325341" cy="600942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528528</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>614253</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="椭圆 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8148528" y="6407439"/>
+          <a:ext cx="2163907" cy="384752"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消费者处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>转发</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>418524</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>259774</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="椭圆 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111251" y="7533409"/>
+          <a:ext cx="17159432" cy="1760683"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>php</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>异步处理功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585968</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102790</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="流程图: 联系 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6820513" y="7796354"/>
+          <a:ext cx="1595004" cy="337127"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志记录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102790</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288671</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="4"/>
+          <a:stCxn id="91" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5460999" y="4875209"/>
-          <a:ext cx="15877" cy="849316"/>
+          <a:off x="8415517" y="7964918"/>
+          <a:ext cx="878609" cy="30309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1420,13 +2040,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1437,26 +2057,288 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>275684</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485234</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100731</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvPr id="101" name="流程图: 联系 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9281139" y="7830990"/>
+          <a:ext cx="1595004" cy="337127"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据统计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>595779</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>17895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112603</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>81683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="流程图: 联系 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6830324" y="8648122"/>
+          <a:ext cx="1595006" cy="439016"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>异步业务实现</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285785</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495337</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="流程图: 联系 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9291240" y="8673523"/>
+          <a:ext cx="1595006" cy="439016"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>异步通知功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112603</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>49789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285785</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="6"/>
+          <a:endCxn id="104" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8425330" y="8867630"/>
+          <a:ext cx="865910" cy="25401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274204</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317504</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直接箭头连接符 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1659659" y="923636"/>
+          <a:ext cx="43300" cy="7244775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>490681</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="TextBox 140"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="5135562"/>
-          <a:ext cx="558800" cy="227012"/>
+          <a:off x="1183408" y="4300684"/>
+          <a:ext cx="1053523" cy="303066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1492,7 +2374,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回</a:t>
+            <a:t>异步多次通知</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1501,26 +2383,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68262</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57732</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577278</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvPr id="142" name="剪去同侧角的矩形 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4214096" y="3930360"/>
+          <a:ext cx="1905000" cy="2203163"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="TextBox 142"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6985000" y="5041900"/>
-          <a:ext cx="558800" cy="274637"/>
+          <a:off x="4632614" y="4113067"/>
+          <a:ext cx="851477" cy="245342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,8 +2490,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>调用</a:t>
-          </a:r>
+            <a:t>数据库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1565,28 +2504,148 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428627</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>650873</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>90509</xdr:rowOff>
+      <xdr:colOff>288641</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346369</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="圆角矩形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445005" y="4560455"/>
+          <a:ext cx="1443182" cy="389659"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平台业务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB-mysql</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288641</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346369</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="圆角矩形 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445005" y="5647746"/>
+          <a:ext cx="1443182" cy="389659"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日志</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB-mongo</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303073</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvPr id="177" name="直接箭头连接符 176"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="142" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3857627" y="4946650"/>
-          <a:ext cx="908046" cy="30184"/>
+        <a:xfrm>
+          <a:off x="5152164" y="3016250"/>
+          <a:ext cx="14432" cy="914110"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1614,26 +2673,502 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245346</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>173184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>245348</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直接箭头连接符 180"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5094437" y="6176820"/>
+          <a:ext cx="2" cy="1544203"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>404097</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>641320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvPr id="190" name="圆角矩形 189"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15644097" y="4552387"/>
+          <a:ext cx="929950" cy="946135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文件保全服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>280522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>482567</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>72160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="圆角矩形 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16905977" y="4517160"/>
+          <a:ext cx="894772" cy="995795"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>远程公正服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>176345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>187614</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接箭头连接符 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="190" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16109072" y="2929659"/>
+          <a:ext cx="11269" cy="1622728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>641320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>280522</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直接箭头连接符 192"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="190" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16574047" y="5015058"/>
+          <a:ext cx="331930" cy="10397"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>176345</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直接箭头连接符 193"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="190" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16091477" y="5498522"/>
+          <a:ext cx="17595" cy="2337955"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="流程图: 联系 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8529204" y="2554434"/>
+          <a:ext cx="1601932" cy="337128"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据权限控制</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274209</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331937</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="圆角矩形 209"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4430573" y="5099337"/>
+          <a:ext cx="1443182" cy="389659"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CFCA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自带</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB-mysql</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476248</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505113</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="圆角矩形 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2554430" y="4127500"/>
+          <a:ext cx="1414319" cy="2039792"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>230910</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="TextBox 211"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4146550" y="4838700"/>
-          <a:ext cx="492125" cy="231775"/>
+          <a:off x="2828637" y="4502727"/>
+          <a:ext cx="865909" cy="303068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,7 +3204,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回</a:t>
+            <a:t>提醒服务</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1678,45 +3213,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72158</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="椭圆 28"/>
+        <xdr:cNvPr id="213" name="圆角矩形 212"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="4635500"/>
-          <a:ext cx="1492250" cy="612775"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:off x="2843067" y="5022273"/>
+          <a:ext cx="837046" cy="447385"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1726,7 +3259,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>通知消息队列</a:t>
+            <a:t>邮件通知</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1736,25 +3269,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>43294</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>245340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="圆角矩形 213"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2814203" y="5575587"/>
+          <a:ext cx="894773" cy="413617"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>短信通知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505116</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvPr id="215" name="直接箭头连接符 214"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3219451" y="1809750"/>
-          <a:ext cx="9524" cy="2847976"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3276025" y="6191253"/>
+          <a:ext cx="14430" cy="1688520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1782,104 +3370,89 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>549276</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>284163</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490681</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490682</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="直接箭头连接符 216"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="211" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3261590" y="2958523"/>
+          <a:ext cx="1" cy="1168977"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533986</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>202047</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2606676" y="2871788"/>
-          <a:ext cx="1106487" cy="227012"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>通知（多次）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>636588</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="流程图: 联系 33"/>
+        <xdr:cNvPr id="224" name="圆角矩形 223"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4751388" y="1219200"/>
-          <a:ext cx="1125537" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:off x="14388531" y="4531591"/>
+          <a:ext cx="1053516" cy="1385455"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1892,13 +3465,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>多语言</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sdk</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>缓存服务</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1906,40 +3474,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>665163</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>411162</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101022</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="流程图: 联系 32"/>
+        <xdr:cNvPr id="226" name="圆角矩形 225"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4779963" y="2247900"/>
-          <a:ext cx="1117599" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:off x="14547279" y="5383070"/>
+          <a:ext cx="793743" cy="389657"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1951,9 +3519,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>握手验证</a:t>
-          </a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>redis</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1961,83 +3530,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>674688</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>420687</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="流程图: 联系 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4789488" y="2705100"/>
-          <a:ext cx="1117599" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>安全传输</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>363538</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>101023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>368016</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvPr id="227" name="直接箭头连接符 226"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="224" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5849938" y="3608387"/>
-          <a:ext cx="1398587" cy="592138"/>
+          <a:off x="14893636" y="3102841"/>
+          <a:ext cx="21653" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2065,355 +3579,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="流程图: 联系 79"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2924174" y="1323975"/>
-          <a:ext cx="1581151" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>异步通知转发</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>454026</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34926</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>360795</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>378399</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直接箭头连接符 82"/>
+        <xdr:cNvPr id="233" name="直接箭头连接符 232"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3190875" y="857250"/>
-          <a:ext cx="6351" cy="1530351"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84138</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169862</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="TextBox 83"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5570538" y="3390900"/>
-          <a:ext cx="558800" cy="217487"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>调用</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>513557</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="34" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5305425" y="847725"/>
-          <a:ext cx="8732" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588963</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="流程图: 联系 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6761163" y="2638425"/>
-          <a:ext cx="1076324" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>日志</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26988</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>427038</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>55559</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="椭圆 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8256588" y="3333750"/>
-          <a:ext cx="1771650" cy="703259"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>日志消息队列（异步）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136063</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19248</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="5"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7679863" y="2914848"/>
-          <a:ext cx="1025987" cy="457002"/>
+        <a:xfrm flipV="1">
+          <a:off x="14908068" y="5960344"/>
+          <a:ext cx="17604" cy="1760679"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2729,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2745,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/电子签约平台/流程梳理/5.模块详细设计.xlsx
+++ b/电子签约平台/流程梳理/5.模块详细设计.xlsx
@@ -3533,7 +3533,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>346363</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>101023</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -3550,8 +3550,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14893636" y="3102841"/>
-          <a:ext cx="21653" cy="1428750"/>
+          <a:off x="14893636" y="3001818"/>
+          <a:ext cx="21653" cy="1529773"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3599,6 +3599,1965 @@
         <a:xfrm flipV="1">
           <a:off x="14908068" y="5960344"/>
           <a:ext cx="17604" cy="1760679"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="1504949"/>
+          <a:ext cx="13020675" cy="15801976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>623309</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="623309" y="1543050"/>
+          <a:ext cx="862591" cy="327314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平台</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2181225"/>
+          <a:ext cx="1533525" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人用户注册</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3476625" y="2409825"/>
+          <a:ext cx="1009650" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="2162175"/>
+          <a:ext cx="1762125" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人用户登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="2133600"/>
+          <a:ext cx="1762125" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人业务功能使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6286500" y="2381250"/>
+          <a:ext cx="1171575" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="3867150"/>
+          <a:ext cx="1533525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业用户注册</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3476625" y="4076700"/>
+          <a:ext cx="1028700" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="3876675"/>
+          <a:ext cx="1724025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业用户登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515225" y="3819525"/>
+          <a:ext cx="1724025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业业务功能使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6315075" y="4043363"/>
+          <a:ext cx="1200150" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="5067300"/>
+          <a:ext cx="1809750" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成为开发者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="4352925"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="椭圆 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="6515100"/>
+          <a:ext cx="1666875" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业自有开发</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="6477000"/>
+          <a:ext cx="1666875" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第三方应用开发</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3671888" y="5743575"/>
+          <a:ext cx="1757362" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="5743575"/>
+          <a:ext cx="1281113" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="8248650"/>
+          <a:ext cx="1724025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统分配</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>key+secrect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="4"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3671888" y="7391400"/>
+          <a:ext cx="1733550" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="9305925"/>
+          <a:ext cx="1724025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开发者设置回调</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>url</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="4"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5405438" y="7353300"/>
+          <a:ext cx="1304925" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5395913" y="8743950"/>
+          <a:ext cx="14287" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="10715625"/>
+          <a:ext cx="1400175" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="10896600"/>
+          <a:ext cx="581025" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="10706100"/>
+          <a:ext cx="1895475" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择需要授权的第三方应用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接箭头连接符 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919663" y="11106150"/>
+          <a:ext cx="19050" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000501" y="11534775"/>
+          <a:ext cx="1876424" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确认授权</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="11715750"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372224" y="11544299"/>
+          <a:ext cx="1476375" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平台通知第三方应用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接箭头连接符 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848599" y="11744324"/>
+          <a:ext cx="476251" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矩形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="11553825"/>
+          <a:ext cx="2076450" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第三方应用接收企业授权信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="椭圆 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="13001625"/>
+          <a:ext cx="1838325" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>使用分配的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>key+secret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用接口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直接箭头连接符 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="78" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8453438" y="11953875"/>
+          <a:ext cx="909637" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="椭圆 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="13020675"/>
+          <a:ext cx="1695450" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>帮助授权的企业实现业务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="11953875"/>
+          <a:ext cx="1504950" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3914,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AE46" sqref="AE46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3930,8 +5889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3965,6 +5924,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
